--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H2">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I2">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J2">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.6320075</v>
+        <v>30.801072</v>
       </c>
       <c r="N2">
-        <v>67.264015</v>
+        <v>61.602144</v>
       </c>
       <c r="O2">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P2">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q2">
-        <v>13.58701713126333</v>
+        <v>2.911358393536</v>
       </c>
       <c r="R2">
-        <v>81.52210278758001</v>
+        <v>17.468150361216</v>
       </c>
       <c r="S2">
-        <v>0.1497839972712668</v>
+        <v>0.002969169732219383</v>
       </c>
       <c r="T2">
-        <v>0.1257675703191357</v>
+        <v>0.002684732771381189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H3">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I3">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J3">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P3">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q3">
-        <v>4.854033910012</v>
+        <v>1.135693953044</v>
       </c>
       <c r="R3">
-        <v>43.686305190108</v>
+        <v>10.221245577396</v>
       </c>
       <c r="S3">
-        <v>0.05351112719648655</v>
+        <v>0.001158245620989064</v>
       </c>
       <c r="T3">
-        <v>0.06739669699512704</v>
+        <v>0.001570934094252886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H4">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I4">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J4">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.122567</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>0.367701</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P4">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q4">
-        <v>0.04951592404133333</v>
+        <v>0.01234054774444444</v>
       </c>
       <c r="R4">
-        <v>0.445643316372</v>
+        <v>0.1110649297</v>
       </c>
       <c r="S4">
-        <v>0.0005458661720846536</v>
+        <v>1.258559609945856E-05</v>
       </c>
       <c r="T4">
-        <v>0.0006875126525515391</v>
+        <v>1.706990438889152E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H5">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I5">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J5">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,152 +747,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.558276</v>
+        <v>14.373679</v>
       </c>
       <c r="N5">
-        <v>39.116552</v>
+        <v>28.747358</v>
       </c>
       <c r="O5">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P5">
-        <v>0.1908305348607893</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q5">
-        <v>7.901360960090666</v>
+        <v>1.358619303985333</v>
       </c>
       <c r="R5">
-        <v>47.408165760544</v>
+        <v>8.151715823911999</v>
       </c>
       <c r="S5">
-        <v>0.08710502217313919</v>
+        <v>0.001385597638531457</v>
       </c>
       <c r="T5">
-        <v>0.07313856754316744</v>
+        <v>0.001252861817816393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>16.98384066666667</v>
+      </c>
+      <c r="H6">
+        <v>50.951522</v>
+      </c>
+      <c r="I6">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="J6">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.4039906666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.211972</v>
-      </c>
-      <c r="I6">
-        <v>0.3832644895981764</v>
-      </c>
-      <c r="J6">
-        <v>0.3832644895981765</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.59650833333333</v>
+        <v>30.801072</v>
       </c>
       <c r="N6">
-        <v>61.789525</v>
+        <v>61.602144</v>
       </c>
       <c r="O6">
-        <v>0.2393357883858265</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P6">
-        <v>0.3014408863169769</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q6">
-        <v>8.320797132588888</v>
+        <v>523.1204992105279</v>
       </c>
       <c r="R6">
-        <v>74.8871741933</v>
+        <v>3138.722995263167</v>
       </c>
       <c r="S6">
-        <v>0.09172890877827095</v>
+        <v>0.5335081919175565</v>
       </c>
       <c r="T6">
-        <v>0.1155315874382981</v>
+        <v>0.4823998140284015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4039906666666667</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H7">
-        <v>1.211972</v>
+        <v>50.951522</v>
       </c>
       <c r="I7">
-        <v>0.3832644895981764</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J7">
-        <v>0.3832644895981765</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1323796666666666</v>
+        <v>12.015213</v>
       </c>
       <c r="N7">
-        <v>0.397139</v>
+        <v>36.045639</v>
       </c>
       <c r="O7">
-        <v>0.001538279759615545</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P7">
-        <v>0.001937447037358482</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q7">
-        <v>0.05348014978977777</v>
+        <v>204.064463168062</v>
       </c>
       <c r="R7">
-        <v>0.481321348108</v>
+        <v>1836.580168512558</v>
       </c>
       <c r="S7">
-        <v>0.0005895680069282575</v>
+        <v>0.208116605913402</v>
       </c>
       <c r="T7">
-        <v>0.0007425546498966977</v>
+        <v>0.2822695513671553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H8">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I8">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J8">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>33.6320075</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N8">
-        <v>67.264015</v>
+        <v>0.391675</v>
       </c>
       <c r="O8">
-        <v>0.3908110491225105</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P8">
-        <v>0.3281482467916435</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q8">
-        <v>21.86374207032167</v>
+        <v>2.217381931038889</v>
       </c>
       <c r="R8">
-        <v>131.18245242193</v>
+        <v>19.95643737935</v>
       </c>
       <c r="S8">
-        <v>0.2410270518512436</v>
+        <v>0.002261412861099001</v>
       </c>
       <c r="T8">
-        <v>0.2023806764725078</v>
+        <v>0.003067165116194238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,309 +962,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.98384066666667</v>
+      </c>
+      <c r="H9">
+        <v>50.951522</v>
+      </c>
+      <c r="I9">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="J9">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.6500873333333334</v>
-      </c>
-      <c r="H9">
-        <v>1.950262</v>
-      </c>
-      <c r="I9">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="J9">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.015213</v>
+        <v>14.373679</v>
       </c>
       <c r="N9">
-        <v>36.045639</v>
+        <v>28.747358</v>
       </c>
       <c r="O9">
-        <v>0.1396193194224409</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P9">
-        <v>0.1758490515669409</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q9">
-        <v>7.810937778602001</v>
+        <v>244.1202739298127</v>
       </c>
       <c r="R9">
-        <v>70.29844000741801</v>
+        <v>1464.721643578876</v>
       </c>
       <c r="S9">
-        <v>0.08610819222595428</v>
+        <v>0.2489678117207529</v>
       </c>
       <c r="T9">
-        <v>0.1084523545718139</v>
+        <v>0.2251174919010592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J10">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.6500873333333334</v>
-      </c>
-      <c r="H10">
-        <v>1.950262</v>
-      </c>
-      <c r="I10">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="J10">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.122567</v>
+        <v>30.801072</v>
       </c>
       <c r="N10">
-        <v>0.367701</v>
+        <v>61.602144</v>
       </c>
       <c r="O10">
-        <v>0.001424254495001488</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P10">
-        <v>0.001793833426290924</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q10">
-        <v>0.07967925418466666</v>
+        <v>0.85375438072</v>
       </c>
       <c r="R10">
-        <v>0.7171132876620001</v>
+        <v>5.12252628432</v>
       </c>
       <c r="S10">
-        <v>0.0008783883229168338</v>
+        <v>0.0008707075266349141</v>
       </c>
       <c r="T10">
-        <v>0.001106320773739385</v>
+        <v>0.0007872965313093441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.6500873333333334</v>
+        <v>0.02771833333333333</v>
       </c>
       <c r="H11">
-        <v>1.950262</v>
+        <v>0.08315500000000001</v>
       </c>
       <c r="I11">
-        <v>0.6167355104018235</v>
+        <v>0.001620378999350348</v>
       </c>
       <c r="J11">
-        <v>0.6167355104018235</v>
+        <v>0.001620378999350348</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.558276</v>
+        <v>12.015213</v>
       </c>
       <c r="N11">
-        <v>39.116552</v>
+        <v>36.045639</v>
       </c>
       <c r="O11">
-        <v>0.2272713088146052</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P11">
-        <v>0.1908305348607893</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q11">
-        <v>12.71458748943733</v>
+        <v>0.333041679005</v>
       </c>
       <c r="R11">
-        <v>76.28752493662401</v>
+        <v>2.997375111045</v>
       </c>
       <c r="S11">
-        <v>0.140166286641466</v>
+        <v>0.0003396549442571891</v>
       </c>
       <c r="T11">
-        <v>0.1176919673176219</v>
+        <v>0.0004606756309249369</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6500873333333334</v>
+        <v>0.02771833333333333</v>
       </c>
       <c r="H12">
-        <v>1.950262</v>
+        <v>0.08315500000000001</v>
       </c>
       <c r="I12">
-        <v>0.6167355104018235</v>
+        <v>0.001620378999350348</v>
       </c>
       <c r="J12">
-        <v>0.6167355104018235</v>
+        <v>0.001620378999350348</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>20.59650833333333</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N12">
-        <v>61.789525</v>
+        <v>0.391675</v>
       </c>
       <c r="O12">
-        <v>0.2393357883858265</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P12">
-        <v>0.3014408863169769</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q12">
-        <v>13.38952917839444</v>
+        <v>0.003618859402777778</v>
       </c>
       <c r="R12">
-        <v>120.50576260555</v>
+        <v>0.032569734625</v>
       </c>
       <c r="S12">
-        <v>0.1476068796075555</v>
+        <v>3.690719709308927E-06</v>
       </c>
       <c r="T12">
-        <v>0.1859092988786788</v>
+        <v>5.00574085376943E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J13">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.6500873333333334</v>
-      </c>
-      <c r="H13">
-        <v>1.950262</v>
-      </c>
-      <c r="I13">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="J13">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1323796666666666</v>
+        <v>14.373679</v>
       </c>
       <c r="N13">
-        <v>0.397139</v>
+        <v>28.747358</v>
       </c>
       <c r="O13">
-        <v>0.001538279759615545</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P13">
-        <v>0.001937447037358482</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q13">
-        <v>0.08605834449088888</v>
+        <v>0.3984144257483334</v>
       </c>
       <c r="R13">
-        <v>0.774525100418</v>
+        <v>2.39048655449</v>
       </c>
       <c r="S13">
-        <v>0.0009487117526872878</v>
+        <v>0.000406325808748936</v>
       </c>
       <c r="T13">
-        <v>0.001194892387461784</v>
+        <v>0.0003674010962622977</v>
       </c>
     </row>
   </sheetData>
